--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F824E3D-FC9F-AA42-A6A3-2F436C78C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF1F18-52D2-4642-9BCF-AC2410BE4D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="50100" windowHeight="28300" activeTab="1" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="28300" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
   <sheets>
     <sheet name="Class exercise" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Andy</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t xml:space="preserve">In both instances, the comparison between the two groups -- where the two groups basically chose the treatment that was best for them. </t>
+  </si>
+  <si>
+    <t>Define the treatment as mindfulness</t>
+  </si>
+  <si>
+    <t>Define the control as MDMA</t>
+  </si>
+  <si>
+    <t>TE = Y1-Y0</t>
+  </si>
+  <si>
+    <t>Higher values of Y1 or Y0 mean that that health outcome is better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine a "perfect clinical doctor". </t>
   </si>
 </sst>
 </file>
@@ -873,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C338FD-9127-544C-A0F4-EAB307542E3E}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +940,10 @@
       <c r="C2" s="17">
         <v>15</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="17">
+        <f>B2-C2</f>
+        <v>-14</v>
+      </c>
       <c r="E2" s="15"/>
       <c r="F2" s="13"/>
       <c r="G2" s="52"/>
@@ -950,7 +968,10 @@
       <c r="C3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
+        <v>-20</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="13"/>
       <c r="G3" s="52"/>
@@ -975,7 +996,10 @@
       <c r="C4" s="17">
         <v>16</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="13"/>
       <c r="G4" s="52"/>
@@ -1000,7 +1024,10 @@
       <c r="C5" s="17">
         <v>11</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="13"/>
       <c r="G5" s="52"/>
@@ -1025,7 +1052,10 @@
       <c r="C6" s="17">
         <v>13</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E6" s="15"/>
       <c r="F6" s="13"/>
       <c r="G6" s="52"/>
@@ -1050,7 +1080,10 @@
       <c r="C7" s="17">
         <v>14</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="13"/>
       <c r="G7" s="52"/>
@@ -1075,7 +1108,10 @@
       <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="13"/>
       <c r="G8" s="52"/>
@@ -1100,7 +1136,10 @@
       <c r="C9" s="17">
         <v>6</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="13"/>
       <c r="G9" s="52"/>
@@ -1125,7 +1164,10 @@
       <c r="C10" s="17">
         <v>7</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E10" s="15"/>
       <c r="F10" s="13"/>
       <c r="G10" s="52"/>
@@ -1150,7 +1192,10 @@
       <c r="C11" s="17">
         <v>20</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="13"/>
       <c r="G11" s="52"/>
@@ -1175,7 +1220,10 @@
       <c r="C12" s="17">
         <v>8</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="14"/>
       <c r="G12" s="52"/>
@@ -1188,6 +1236,9 @@
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
+      <c r="H13" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1201,6 +1252,9 @@
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
+      <c r="H14" s="22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
@@ -1212,6 +1266,9 @@
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
+      <c r="H15" s="22" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
@@ -1234,6 +1291,9 @@
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
+      <c r="H17" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
@@ -1243,6 +1303,9 @@
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
+      <c r="H18" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1339,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D807E-B9E2-0447-AF93-DEE806C3102F}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF1F18-52D2-4642-9BCF-AC2410BE4D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA49B2-E42B-904B-AE04-E3355FD02C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="28300" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="28300" activeTab="1" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
   <sheets>
     <sheet name="Class exercise" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Andy</t>
   </si>
@@ -178,13 +178,130 @@
   </si>
   <si>
     <t xml:space="preserve">Imagine a "perfect clinical doctor". </t>
+  </si>
+  <si>
+    <t>Knowing each person's TE, the perfect doctor will then choose the treatment that is best</t>
+  </si>
+  <si>
+    <t>Y = DY1 + (1-D)Y0 based on treatment assignment, and the treatment assignment here</t>
+  </si>
+  <si>
+    <t>will be based on whether the TE is positive (D=1) or non-positive (D=0)&gt;</t>
+  </si>
+  <si>
+    <t>ATT (mindfulness)</t>
+  </si>
+  <si>
+    <t>ATU (MDMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the treatment effects and their variants are based on Y(1), Y(0), not Y. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We calculate ATT or ATU depending on whether a unit is treated or not treated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causal parameters are always extensions of column D not column E. </t>
+  </si>
+  <si>
+    <t>SDO = Avg Y for treated - Avg Y for comparison</t>
+  </si>
+  <si>
+    <t>On average, the mindfulness group has a health score that is 1.93 points lower than the MDMA group.</t>
+  </si>
+  <si>
+    <t>WHY doesn't the SDO equal any of those aggregate causal parameters? Why then do we sometimes</t>
+  </si>
+  <si>
+    <t>use SDO like estimators when evaluating an RCT?</t>
+  </si>
+  <si>
+    <t>Selection bias terms</t>
+  </si>
+  <si>
+    <t>For our mindfulness group, had they been on MDMA their health would have been 10.5</t>
+  </si>
+  <si>
+    <t>For our MDMA group (D=0), average health on MDMA was 13.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ATE is negative, and the SDO was negative. So it's biased, but at least the sign is right. </t>
+  </si>
+  <si>
+    <t>Hint to figure out column F: remember that this is the perfect doctor.  She assigns the treatment that is best</t>
+  </si>
+  <si>
+    <t>for you.</t>
+  </si>
+  <si>
+    <t>"Class exercise": ATE = -5, SDO = -1.93</t>
+  </si>
+  <si>
+    <t>Y = DY1 + (1-D)Y0</t>
+  </si>
+  <si>
+    <t>"Group exercise": ATE=+2</t>
+  </si>
+  <si>
+    <t>ATE &lt;0</t>
+  </si>
+  <si>
+    <t>ATE&gt;0</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Question: is it always getting the sign rigth? No.</t>
+  </si>
+  <si>
+    <t>New situation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDO = </t>
+  </si>
+  <si>
+    <t>SDO decompisition</t>
+  </si>
+  <si>
+    <t>"SDO = =B15+B22+(1-B23)*(B16-B17)"</t>
+  </si>
+  <si>
+    <t>SDO = average Y for treated - average y for control</t>
+  </si>
+  <si>
+    <t>"Signs" I mean whether the ATE is positive or negative. So when SDO&gt;0, ATE&gt;0 I say "got the sign right."</t>
+  </si>
+  <si>
+    <t>Simple models (OLS is one too) do not have "no sign flip properties" unless certain assumptions hold.</t>
+  </si>
+  <si>
+    <t>Random D</t>
+  </si>
+  <si>
+    <t>Perfect doctor D</t>
+  </si>
+  <si>
+    <t>Perfect doctor (selection on gains) uses the treatment effect to make the treatment assignment. So treatment is not independent of Y1, Y0</t>
+  </si>
+  <si>
+    <t>Randomization (no selection on gains) does not use treatment effect, Y1 or Y0 to make treatment assignemtn. So treatment is independent of Y1,Y0.</t>
+  </si>
+  <si>
+    <t>This is a big deal.  It took us all of human history up to 1923 Jerzey Neyman and 1925 Ronald Fisher to realize that under randomization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you could identify a causal effect with data even without the potential outcomes. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,8 +317,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +404,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -456,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -570,6 +712,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,15 +1075,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C338FD-9127-544C-A0F4-EAB307542E3E}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -931,21 +1120,26 @@
       <c r="O1" s="66"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="A2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="81">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="82">
         <v>15</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="82">
         <f>B2-C2</f>
         <v>-14</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="82">
+        <f>F2*B2+(1-F2)*C2</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="82">
+        <v>0</v>
+      </c>
       <c r="G2" s="52"/>
       <c r="H2" s="18" t="s">
         <v>35</v>
@@ -959,21 +1153,26 @@
       <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="81">
+        <v>0</v>
+      </c>
+      <c r="C3" s="82">
         <v>20</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="82">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>-20</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="82">
+        <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="82">
+        <v>0</v>
+      </c>
       <c r="G3" s="52"/>
       <c r="H3" s="30" t="s">
         <v>34</v>
@@ -987,21 +1186,26 @@
       <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="81">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="82">
         <v>16</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="82">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="82">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="82">
+        <v>0</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -1015,21 +1219,26 @@
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="81">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="82">
         <v>11</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="82">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="82">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="82">
+        <v>0</v>
+      </c>
       <c r="G5" s="52"/>
       <c r="H5" s="40" t="s">
         <v>27</v>
@@ -1043,21 +1252,26 @@
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="75">
         <v>14</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="76">
         <v>13</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="76">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="76">
+        <v>1</v>
+      </c>
       <c r="G6" s="52"/>
       <c r="H6" s="40" t="s">
         <v>28</v>
@@ -1071,21 +1285,26 @@
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="75">
         <v>15</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="76">
         <v>14</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="76">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="76">
+        <v>1</v>
+      </c>
       <c r="G7" s="52"/>
       <c r="H7" s="27" t="s">
         <v>29</v>
@@ -1099,21 +1318,26 @@
       <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="81">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="82">
         <v>6</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="82">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0</v>
+      </c>
       <c r="G8" s="52"/>
       <c r="H8" s="43" t="s">
         <v>30</v>
@@ -1127,21 +1351,26 @@
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="81">
         <v>1</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="82">
         <v>6</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="82">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="82">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="82">
+        <v>0</v>
+      </c>
       <c r="G9" s="52"/>
       <c r="H9" s="21" t="s">
         <v>31</v>
@@ -1155,21 +1384,26 @@
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="75">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="76">
         <v>7</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="76">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="76">
+        <v>1</v>
+      </c>
       <c r="G10" s="52"/>
       <c r="H10" s="46" t="s">
         <v>37</v>
@@ -1183,21 +1417,26 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="81">
         <v>19</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="82">
         <v>20</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="82">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="82">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="82">
+        <v>0</v>
+      </c>
       <c r="G11" s="52"/>
       <c r="H11" s="24" t="s">
         <v>40</v>
@@ -1211,21 +1450,26 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="75">
         <v>9</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="76">
         <v>8</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="76">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="78">
+        <v>1</v>
+      </c>
       <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1504,10 @@
       <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="56">
+        <f>AVERAGE(D2:D12)</f>
+        <v>-5</v>
+      </c>
       <c r="C15" s="55"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -1272,9 +1519,12 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="57"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="57">
+        <f>AVERAGE(D6:D7,D10,D12)</f>
+        <v>1</v>
+      </c>
       <c r="C16" s="55"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -1283,9 +1533,12 @@
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="58"/>
+        <v>52</v>
+      </c>
+      <c r="B17" s="58">
+        <f>AVERAGE(D2:D5,D8:D9,D11)</f>
+        <v>-8.4285714285714288</v>
+      </c>
       <c r="C17" s="55"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
@@ -1309,7 +1562,7 @@
     </row>
     <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>24</v>
@@ -1319,60 +1572,86 @@
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="56">
+        <f>AVERAGE(C6:C7,C10,C12)</f>
+        <v>10.5</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="58">
+        <f>AVERAGE(C2:C5,C8:C9,C11)</f>
+        <v>13.428571428571429</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="1"/>
+      <c r="B22" s="58">
+        <f>B20-B21</f>
+        <v>-2.9285714285714288</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="61">
+        <f>AVERAGE(F2:F12)</f>
+        <v>0.36363636363636365</v>
+      </c>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
+      <c r="H23" s="68" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="62">
+        <f>AVERAGE(E6:E7,E10,E12) - AVERAGE(E2:E5,E8:E9,E11)</f>
+        <v>-1.9285714285714288</v>
+      </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
@@ -1380,15 +1659,54 @@
       <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="62">
+        <f>B15+B24+(1-B23)*(B16-B17)</f>
+        <v>-0.92857142857142883</v>
+      </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1400,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D807E-B9E2-0447-AF93-DEE806C3102F}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,6 +1729,7 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1424,16 +1743,18 @@
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="98" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="52"/>
+        <v>82</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="H1" s="64" t="s">
         <v>33</v>
       </c>
@@ -1455,10 +1776,21 @@
       <c r="C2" s="17">
         <v>15</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="52"/>
+      <c r="D2" s="82">
+        <f>B2-C2</f>
+        <v>-1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>F2*B2+(1-F2)*C2</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="99">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
       <c r="H2" s="18" t="s">
         <v>35</v>
       </c>
@@ -1480,10 +1812,21 @@
       <c r="C3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="52"/>
+      <c r="D3" s="82">
+        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="99">
+        <f t="shared" ref="G3:G12" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="30" t="s">
         <v>34</v>
       </c>
@@ -1505,10 +1848,21 @@
       <c r="C4" s="17">
         <v>16</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="82">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
       </c>
@@ -1530,10 +1884,21 @@
       <c r="C5" s="17">
         <v>11</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="82">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="40" t="s">
         <v>27</v>
       </c>
@@ -1555,10 +1920,21 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="82">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="H6" s="40" t="s">
         <v>28</v>
       </c>
@@ -1580,10 +1956,21 @@
       <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="82">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>29</v>
       </c>
@@ -1605,10 +1992,21 @@
       <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="43" t="s">
         <v>30</v>
       </c>
@@ -1630,10 +2028,21 @@
       <c r="C9" s="17">
         <v>6</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="82">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="21" t="s">
         <v>31</v>
       </c>
@@ -1655,10 +2064,21 @@
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="52"/>
+      <c r="D10" s="82">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="H10" s="46" t="s">
         <v>32</v>
       </c>
@@ -1680,10 +2100,21 @@
       <c r="C11" s="17">
         <v>20</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="82">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
       <c r="H11" s="24" t="s">
         <v>40</v>
       </c>
@@ -1705,10 +2136,24 @@
       <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="52"/>
+      <c r="D12" s="82">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
@@ -1718,6 +2163,9 @@
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1731,44 +2179,83 @@
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="56"/>
+      <c r="B15" s="56">
+        <f>AVERAGE(D2:D12)</f>
+        <v>2</v>
+      </c>
       <c r="C15" s="55"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H15" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="57">
+        <f>AVERAGE(D6:D7,D10,D12)</f>
+        <v>9.25</v>
+      </c>
       <c r="C16" s="55"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="58">
+        <f>AVERAGE(D2:D5,D8:D9,D11)</f>
+        <v>-2.1428571428571428</v>
+      </c>
       <c r="C17" s="55"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="59"/>
       <c r="C18" s="53"/>
@@ -1776,8 +2263,26 @@
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="96">
+        <v>-5</v>
+      </c>
+      <c r="L18" s="79">
+        <v>2</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="56">
+        <v>10.5</v>
+      </c>
+      <c r="O18" s="90">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1789,80 +2294,204 @@
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="str">
+        <f xml:space="preserve"> "=F2*B2+(1-F2)*C2"</f>
+        <v>=F2*B2+(1-F2)*C2</v>
+      </c>
+      <c r="J19" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="85">
+        <v>1</v>
+      </c>
+      <c r="L19" s="90">
+        <v>9.25</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="58">
+        <v>13.428571428571429</v>
+      </c>
+      <c r="O19" s="91">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="56">
+        <f>AVERAGE(C6:C7,C10,C12)</f>
+        <v>2.25</v>
+      </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="86">
+        <v>-8.4285714285714288</v>
+      </c>
+      <c r="L20" s="91">
+        <v>-2.14</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="58">
+        <v>-2.9285714285714288</v>
+      </c>
+      <c r="O20" s="84">
+        <f>B22</f>
+        <v>-11.178571428571429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="58">
+        <f>AVERAGE(C2:C5,C8:C9,C11)</f>
+        <v>13.428571428571429</v>
+      </c>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="95">
+        <v>-1.93</v>
+      </c>
+      <c r="L21" s="97">
+        <v>-1.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="58"/>
+      <c r="B22" s="58">
+        <f>B20-B21</f>
+        <v>-11.178571428571429</v>
+      </c>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f>"SDO =B15+B22+(1-B23)*(B16-B17)"</f>
+        <v>SDO =B15+B22+(1-B23)*(B16-B17)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="61">
+        <f>AVERAGE(F2:F12)</f>
+        <v>0.36363636363636365</v>
+      </c>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="62">
+        <f>AVERAGE(E6:E7,E10,E12) - AVERAGE(E2:E5,E8:E9,E11)</f>
+        <v>-1.9285714285714288</v>
+      </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="63">
+        <f>B15+B22+(1-B23)*(B16-B17)</f>
+        <v>-1.9285714285714288</v>
+      </c>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" t="str">
+        <f>"-5 + -2.93 + (.64) x (1 - -8.94) = -1.93"</f>
+        <v>-5 + -2.93 + (.64) x (1 - -8.94) = -1.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA49B2-E42B-904B-AE04-E3355FD02C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EED33C-4184-464F-913A-34543E31E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="28300" activeTab="1" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="1" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
   <sheets>
     <sheet name="Class exercise" sheetId="1" r:id="rId1"/>
@@ -705,15 +705,6 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -759,6 +750,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1108,36 +1108,36 @@
         <v>13</v>
       </c>
       <c r="G1" s="52"/>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="78">
         <v>1</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="79">
         <v>15</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="79">
         <f>B2-C2</f>
         <v>-14</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="79">
         <f>F2*B2+(1-F2)*C2</f>
         <v>15</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="79">
         <v>0</v>
       </c>
       <c r="G2" s="52"/>
@@ -1153,24 +1153,24 @@
       <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="78">
         <v>0</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="79">
         <v>20</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="79">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>-20</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="79">
         <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
         <v>20</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="79">
         <v>0</v>
       </c>
       <c r="G3" s="52"/>
@@ -1186,24 +1186,24 @@
       <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="78">
         <v>3</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="79">
         <v>16</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="79">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="79">
         <v>0</v>
       </c>
       <c r="G4" s="52"/>
@@ -1219,24 +1219,24 @@
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="78">
         <v>5</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="79">
         <v>11</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="79">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="79">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="79">
         <v>0</v>
       </c>
       <c r="G5" s="52"/>
@@ -1252,24 +1252,24 @@
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="72">
         <v>14</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="73">
         <v>13</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="73">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="73">
         <v>1</v>
       </c>
       <c r="G6" s="52"/>
@@ -1285,24 +1285,24 @@
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="72">
         <v>15</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="73">
         <v>14</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="73">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="73">
         <v>1</v>
       </c>
       <c r="G7" s="52"/>
@@ -1318,24 +1318,24 @@
       <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="78">
         <v>6</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="79">
         <v>6</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="79">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="79">
         <v>0</v>
       </c>
       <c r="G8" s="52"/>
@@ -1351,24 +1351,24 @@
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="78">
         <v>1</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="79">
         <v>6</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="79">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="79">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="79">
         <v>0</v>
       </c>
       <c r="G9" s="52"/>
@@ -1384,24 +1384,24 @@
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="72">
         <v>8</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="73">
         <v>7</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="73">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="73">
         <v>1</v>
       </c>
       <c r="G10" s="52"/>
@@ -1417,24 +1417,24 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="78">
         <v>19</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="79">
         <v>20</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="79">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="79">
         <v>0</v>
       </c>
       <c r="G11" s="52"/>
@@ -1450,24 +1450,24 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="72">
         <v>9</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="73">
         <v>8</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="73">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="73">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="75">
         <v>1</v>
       </c>
       <c r="G12" s="52"/>
@@ -1572,7 +1572,7 @@
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="65" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1584,14 +1584,14 @@
         <f>AVERAGE(C6:C7,C10,C12)</f>
         <v>10.5</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="74"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
@@ -1601,14 +1601,14 @@
         <f>AVERAGE(C2:C5,C8:C9,C11)</f>
         <v>13.428571428571429</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1618,11 +1618,11 @@
         <f>B20-B21</f>
         <v>-2.9285714285714288</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1676,11 +1676,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
       <c r="H26" t="s">
         <v>54</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="95" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -1755,16 +1755,16 @@
       <c r="G1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1776,7 +1776,7 @@
       <c r="C2" s="17">
         <v>15</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="79">
         <f>B2-C2</f>
         <v>-1</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="96">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="C3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="79">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>-5</v>
       </c>
@@ -1823,9 +1823,9 @@
       <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="96">
         <f t="shared" ref="G3:G12" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>34</v>
@@ -1848,7 +1848,7 @@
       <c r="C4" s="17">
         <v>16</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1859,9 +1859,9 @@
       <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -1884,7 +1884,7 @@
       <c r="C5" s="17">
         <v>11</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="79">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
@@ -1895,9 +1895,9 @@
       <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>27</v>
@@ -1920,7 +1920,7 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="96">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="79">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1967,9 +1967,9 @@
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>29</v>
@@ -1992,7 +1992,7 @@
       <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="96">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="C9" s="17">
         <v>6</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="79">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="96">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2075,9 +2075,9 @@
       <c r="F10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="46" t="s">
         <v>32</v>
@@ -2100,7 +2100,7 @@
       <c r="C11" s="17">
         <v>20</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="79">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2111,9 +2111,9 @@
       <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>40</v>
@@ -2136,7 +2136,7 @@
       <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="79">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2147,9 +2147,9 @@
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>79</v>
@@ -2236,13 +2236,13 @@
       <c r="H17" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="89" t="s">
+      <c r="J17" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="87" t="s">
+      <c r="K17" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="89" t="s">
+      <c r="L17" s="86" t="s">
         <v>72</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -2251,7 +2251,7 @@
       <c r="N17" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="94" t="s">
+      <c r="O17" s="91" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2263,13 +2263,13 @@
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
-      <c r="J18" s="92" t="s">
+      <c r="J18" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="93">
         <v>-5</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="76">
         <v>2</v>
       </c>
       <c r="M18" s="36" t="s">
@@ -2278,7 +2278,7 @@
       <c r="N18" s="56">
         <v>10.5</v>
       </c>
-      <c r="O18" s="90">
+      <c r="O18" s="87">
         <v>2.25</v>
       </c>
     </row>
@@ -2298,13 +2298,13 @@
         <f xml:space="preserve"> "=F2*B2+(1-F2)*C2"</f>
         <v>=F2*B2+(1-F2)*C2</v>
       </c>
-      <c r="J19" s="92" t="s">
+      <c r="J19" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="82">
         <v>1</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="87">
         <v>9.25</v>
       </c>
       <c r="M19" s="37" t="s">
@@ -2313,7 +2313,7 @@
       <c r="N19" s="58">
         <v>13.428571428571429</v>
       </c>
-      <c r="O19" s="91">
+      <c r="O19" s="88">
         <v>13.43</v>
       </c>
     </row>
@@ -2330,16 +2330,16 @@
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="86">
+      <c r="K20" s="83">
         <v>-8.4285714285714288</v>
       </c>
-      <c r="L20" s="91">
+      <c r="L20" s="88">
         <v>-2.14</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2348,7 +2348,7 @@
       <c r="N20" s="58">
         <v>-2.9285714285714288</v>
       </c>
-      <c r="O20" s="84">
+      <c r="O20" s="81">
         <f>B22</f>
         <v>-11.178571428571429</v>
       </c>
@@ -2367,13 +2367,13 @@
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="1"/>
-      <c r="J21" s="88" t="s">
+      <c r="J21" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="95">
+      <c r="K21" s="92">
         <v>-1.93</v>
       </c>
-      <c r="L21" s="97">
+      <c r="L21" s="94">
         <v>-1.93</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="85" t="s">
         <v>76</v>
       </c>
       <c r="K23" t="s">

--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EED33C-4184-464F-913A-34543E31E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE88A66-E97F-034B-8C3D-E539FFC44B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="1" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="2" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
   <sheets>
     <sheet name="Class exercise" sheetId="1" r:id="rId1"/>
     <sheet name="Group exercise" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
   <si>
     <t>Andy</t>
   </si>
@@ -295,6 +296,48 @@
   </si>
   <si>
     <t xml:space="preserve">you could identify a causal effect with data even without the potential outcomes. </t>
+  </si>
+  <si>
+    <t>Perfect doctor -- "selection on gains from treatment". She picked the treatment depending on whether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the treatment effect was positive of negative/zero. </t>
+  </si>
+  <si>
+    <t>Left us with selection bias: E[Y0|D=1] \neq E[Y0|D=0]</t>
+  </si>
+  <si>
+    <t>What if we randomized the treatment? Well, in expectation, if you randomize the treatment (coin flip),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then there Y0 for the treatment and Y0 for the control are the same in expectation (population means). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But in the sample, they won't hold because of finite sample bias. </t>
+  </si>
+  <si>
+    <t>E[Y0|D=1]</t>
+  </si>
+  <si>
+    <t>E[Y0|D=0]</t>
+  </si>
+  <si>
+    <t>Randomized D (not perfect doctor assignment but for column G)</t>
+  </si>
+  <si>
+    <t>Coin flip D</t>
+  </si>
+  <si>
+    <t>n=11</t>
+  </si>
+  <si>
+    <t>n=1000</t>
+  </si>
+  <si>
+    <t>n=10,000</t>
+  </si>
+  <si>
+    <t>n=1 million</t>
   </si>
 </sst>
 </file>
@@ -598,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -759,6 +802,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1720,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D807E-B9E2-0447-AF93-DEE806C3102F}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1825,7 +1886,7 @@
       </c>
       <c r="G3" s="96">
         <f t="shared" ref="G3:G12" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>34</v>
@@ -1861,7 +1922,7 @@
       </c>
       <c r="G4" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -1897,7 +1958,7 @@
       </c>
       <c r="G5" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>27</v>
@@ -1933,7 +1994,7 @@
       </c>
       <c r="G6" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>28</v>
@@ -1969,7 +2030,7 @@
       </c>
       <c r="G7" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>29</v>
@@ -2005,7 +2066,7 @@
       </c>
       <c r="G8" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>30</v>
@@ -2041,7 +2102,7 @@
       </c>
       <c r="G9" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>31</v>
@@ -2149,7 +2210,7 @@
       </c>
       <c r="G12" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>79</v>
@@ -2500,4 +2561,382 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A95D6-3536-FC47-BAC6-42942EFC417D}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>14</v>
+      </c>
+      <c r="C2" s="17">
+        <v>15</v>
+      </c>
+      <c r="D2" s="79">
+        <f>B2-C2</f>
+        <v>-1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>F2*B2+(1-F2)*C2</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="100">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>15</v>
+      </c>
+      <c r="C3" s="17">
+        <v>20</v>
+      </c>
+      <c r="D3" s="79">
+        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="100">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>15</v>
+      </c>
+      <c r="C4" s="17">
+        <v>16</v>
+      </c>
+      <c r="D4" s="79">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="100">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
+        <v>11</v>
+      </c>
+      <c r="D5" s="79">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="100">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="79">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="79">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="100">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>6</v>
+      </c>
+      <c r="D8" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="79">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="79">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17">
+        <v>20</v>
+      </c>
+      <c r="D11" s="79">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="101">
+        <v>9</v>
+      </c>
+      <c r="C12" s="102">
+        <v>6</v>
+      </c>
+      <c r="D12" s="103">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="104">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(C3,C6,C10,C12)</f>
+        <v>6.75</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(C2,C4:C5,C7:C9,C11)</f>
+        <v>10.857142857142858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE88A66-E97F-034B-8C3D-E539FFC44B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4398DE4-20DA-3546-BD74-DE7A18E41C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="2" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>Andy</t>
   </si>
@@ -338,6 +338,27 @@
   </si>
   <si>
     <t>n=1 million</t>
+  </si>
+  <si>
+    <t>LATE</t>
+  </si>
+  <si>
+    <t>Compliers</t>
+  </si>
+  <si>
+    <t>heterogenous treatment effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant </t>
+  </si>
+  <si>
+    <t>Non-compliers would be ppl who either NEVER take the treatment or ALWAYS take the treatmetn</t>
+  </si>
+  <si>
+    <t>Always takers always go to the treatment regardless of instrument assignment bc they think it's in their best interest to go</t>
+  </si>
+  <si>
+    <t>Never takers never go to the treatment regardless of instument assignment bc…</t>
   </si>
 </sst>
 </file>
@@ -641,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -804,24 +825,24 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1886,7 +1907,7 @@
       </c>
       <c r="G3" s="96">
         <f t="shared" ref="G3:G12" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>34</v>
@@ -1922,7 +1943,7 @@
       </c>
       <c r="G4" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -1994,7 +2015,7 @@
       </c>
       <c r="G6" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>28</v>
@@ -2102,7 +2123,7 @@
       </c>
       <c r="G9" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>31</v>
@@ -2174,7 +2195,7 @@
       </c>
       <c r="G11" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>40</v>
@@ -2210,7 +2231,7 @@
       </c>
       <c r="G12" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>79</v>
@@ -2565,18 +2586,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A95D6-3536-FC47-BAC6-42942EFC417D}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2601,11 +2627,14 @@
       <c r="G1" s="12" t="s">
         <v>96</v>
       </c>
+      <c r="H1" s="85" t="s">
+        <v>102</v>
+      </c>
       <c r="I1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2626,14 +2655,17 @@
       <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="100">
-        <v>0</v>
+      <c r="G2" s="103">
+        <v>0</v>
+      </c>
+      <c r="H2" s="91">
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2654,8 +2686,11 @@
       <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="100">
-        <v>1</v>
+      <c r="G3" s="103">
+        <v>1</v>
+      </c>
+      <c r="H3" s="105">
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>89</v>
@@ -2682,14 +2717,17 @@
       <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="100">
-        <v>0</v>
+      <c r="G4" s="103">
+        <v>0</v>
+      </c>
+      <c r="H4" s="106">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2748,11 @@
       <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="100">
-        <v>0</v>
+      <c r="G5" s="103">
+        <v>0</v>
+      </c>
+      <c r="H5" s="107">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>91</v>
@@ -2738,8 +2779,11 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="100">
-        <v>1</v>
+      <c r="G6" s="103">
+        <v>1</v>
+      </c>
+      <c r="H6" s="105">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2763,14 +2807,17 @@
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="103">
+        <v>0</v>
+      </c>
+      <c r="H7" s="105">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2791,11 +2838,14 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="103">
+        <v>0</v>
+      </c>
+      <c r="H8" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2816,8 +2866,11 @@
       <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="100">
-        <v>0</v>
+      <c r="G9" s="103">
+        <v>0</v>
+      </c>
+      <c r="H9" s="91">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2841,8 +2894,11 @@
       <c r="F10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="100">
-        <v>1</v>
+      <c r="G10" s="103">
+        <v>1</v>
+      </c>
+      <c r="H10" s="105">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2866,7 +2922,10 @@
       <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="100">
+      <c r="G11" s="103">
+        <v>0</v>
+      </c>
+      <c r="H11" s="105">
         <v>0</v>
       </c>
     </row>
@@ -2874,25 +2933,28 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="100">
         <v>9</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="101">
         <v>6</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="79">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="102">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="105">
-        <v>1</v>
+      <c r="G12" s="104">
+        <v>1</v>
+      </c>
+      <c r="H12" s="105">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2907,6 +2969,15 @@
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2920,20 +2991,60 @@
         <f>AVERAGE(C2,C4:C5,C7:C9,C11)</f>
         <v>10.857142857142858</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>-2.25</v>
+      </c>
+      <c r="I16">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(D2:D12)</f>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f>AVERAGE(D2,D4:D5,D9)</f>
+        <v>-2.25</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(D6:D7,D10,D12)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4398DE4-20DA-3546-BD74-DE7A18E41C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE9903A-9416-2143-B5B1-80334CCDE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="2" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>Andy</t>
   </si>
@@ -343,22 +343,43 @@
     <t>LATE</t>
   </si>
   <si>
-    <t>Compliers</t>
-  </si>
-  <si>
-    <t>heterogenous treatment effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant </t>
-  </si>
-  <si>
-    <t>Non-compliers would be ppl who either NEVER take the treatment or ALWAYS take the treatmetn</t>
-  </si>
-  <si>
-    <t>Always takers always go to the treatment regardless of instrument assignment bc they think it's in their best interest to go</t>
-  </si>
-  <si>
-    <t>Never takers never go to the treatment regardless of instument assignment bc…</t>
+    <t>ATE for the compliers (those who entered treatment bc of instrument assignment)</t>
+  </si>
+  <si>
+    <t>Aggregate causal parameter estimates</t>
+  </si>
+  <si>
+    <t>Aggregate causal parameters</t>
+  </si>
+  <si>
+    <t>Average causal effect for everybody (column D)</t>
+  </si>
+  <si>
+    <t>Average causal effect for the treatment group (Edith, Frank, Ina and Mindy)</t>
+  </si>
+  <si>
+    <t>IV identifeis the LATE</t>
+  </si>
+  <si>
+    <t>RCTs identify the ATE</t>
+  </si>
+  <si>
+    <t>DiD identifies the ATT</t>
+  </si>
+  <si>
+    <t>ATT = E[Y1|D=1] - E[Y0|D=1]</t>
+  </si>
+  <si>
+    <t>We observe Y1 for the D=1 group</t>
+  </si>
+  <si>
+    <t>We do not observe Y0 for the D=1 group</t>
+  </si>
+  <si>
+    <t>Coin flips, bingo ball machines, alphabetizing, the wind -- these are all examples of independence. Bc in each of them, the treatment is assigned for reasons that are not related to treatment effects (Y0 or Y1).</t>
+  </si>
+  <si>
+    <t>selection bias</t>
   </si>
 </sst>
 </file>
@@ -662,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -829,6 +850,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,7 +1895,7 @@
       </c>
       <c r="G2" s="96">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>35</v>
@@ -1907,7 +1931,7 @@
       </c>
       <c r="G3" s="96">
         <f t="shared" ref="G3:G12" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>34</v>
@@ -1943,7 +1967,7 @@
       </c>
       <c r="G4" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>26</v>
@@ -2123,7 +2147,7 @@
       </c>
       <c r="G9" s="96">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>31</v>
@@ -2586,18 +2610,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A95D6-3536-FC47-BAC6-42942EFC417D}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -2627,9 +2652,7 @@
       <c r="G1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="85" t="s">
-        <v>102</v>
-      </c>
+      <c r="H1" s="85"/>
       <c r="I1" t="s">
         <v>87</v>
       </c>
@@ -2655,12 +2678,10 @@
       <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="103">
-        <v>0</v>
-      </c>
-      <c r="H2" s="91">
-        <v>1</v>
-      </c>
+      <c r="G2" s="104">
+        <v>0</v>
+      </c>
+      <c r="H2" s="91"/>
       <c r="I2" t="s">
         <v>88</v>
       </c>
@@ -2686,12 +2707,10 @@
       <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="103">
-        <v>1</v>
-      </c>
-      <c r="H3" s="105">
-        <v>0</v>
-      </c>
+      <c r="G3" s="104">
+        <v>1</v>
+      </c>
+      <c r="H3" s="106"/>
       <c r="J3" t="s">
         <v>89</v>
       </c>
@@ -2717,12 +2736,10 @@
       <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="103">
-        <v>0</v>
-      </c>
-      <c r="H4" s="106">
-        <v>1</v>
-      </c>
+      <c r="G4" s="104">
+        <v>0</v>
+      </c>
+      <c r="H4" s="107"/>
       <c r="I4" t="s">
         <v>90</v>
       </c>
@@ -2748,12 +2765,10 @@
       <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="103">
-        <v>0</v>
-      </c>
-      <c r="H5" s="107">
-        <v>1</v>
-      </c>
+      <c r="G5" s="104">
+        <v>0</v>
+      </c>
+      <c r="H5" s="108"/>
       <c r="I5" t="s">
         <v>91</v>
       </c>
@@ -2779,12 +2794,10 @@
       <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="G6" s="103">
-        <v>1</v>
-      </c>
-      <c r="H6" s="105">
-        <v>0</v>
-      </c>
+      <c r="G6" s="104">
+        <v>1</v>
+      </c>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2807,12 +2820,10 @@
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="103">
-        <v>0</v>
-      </c>
-      <c r="H7" s="105">
-        <v>0</v>
-      </c>
+      <c r="G7" s="104">
+        <v>0</v>
+      </c>
+      <c r="H7" s="106"/>
       <c r="I7" t="s">
         <v>92</v>
       </c>
@@ -2838,12 +2849,10 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="103">
-        <v>0</v>
-      </c>
-      <c r="H8" s="105">
-        <v>0</v>
-      </c>
+      <c r="G8" s="104">
+        <v>0</v>
+      </c>
+      <c r="H8" s="106"/>
     </row>
     <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2866,12 +2875,10 @@
       <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="103">
-        <v>0</v>
-      </c>
-      <c r="H9" s="91">
-        <v>1</v>
-      </c>
+      <c r="G9" s="104">
+        <v>0</v>
+      </c>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2894,12 +2901,10 @@
       <c r="F10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="103">
-        <v>1</v>
-      </c>
-      <c r="H10" s="105">
-        <v>0</v>
-      </c>
+      <c r="G10" s="104">
+        <v>1</v>
+      </c>
+      <c r="H10" s="106"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -2922,12 +2927,10 @@
       <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="103">
-        <v>0</v>
-      </c>
-      <c r="H11" s="105">
-        <v>0</v>
-      </c>
+      <c r="G11" s="104">
+        <v>0</v>
+      </c>
+      <c r="H11" s="106"/>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -2939,28 +2942,29 @@
       <c r="C12" s="101">
         <v>6</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="102">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="103">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="104">
-        <v>1</v>
-      </c>
-      <c r="H12" s="105">
-        <v>0</v>
-      </c>
+      <c r="G12" s="105">
+        <v>1</v>
+      </c>
+      <c r="H12" s="106"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>95</v>
       </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -2969,14 +2973,14 @@
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2991,60 +2995,113 @@
         <f>AVERAGE(C2,C4:C5,C7:C9,C11)</f>
         <v>10.857142857142858</v>
       </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>-2.25</v>
-      </c>
-      <c r="I16">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="81">
+        <f>B16-C16</f>
+        <v>-4.1071428571428577</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="81">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>7.25</v>
+      </c>
+      <c r="C18">
+        <v>7.5</v>
+      </c>
+      <c r="D18" s="81">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>7.45</v>
+      </c>
+      <c r="C19">
+        <v>7.5</v>
+      </c>
+      <c r="D19" s="81">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G17">
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
         <f>AVERAGE(D2:D12)</f>
         <v>2</v>
       </c>
-      <c r="H17">
-        <f>AVERAGE(D2,D4:D5,D9)</f>
-        <v>-2.25</v>
-      </c>
-      <c r="I17">
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
         <f>AVERAGE(D6:D7,D10,D12)</f>
         <v>9.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+      <c r="C22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Exercises/Perfect doctor.xlsx
+++ b/Code/Exercises/Perfect doctor.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE9903A-9416-2143-B5B1-80334CCDE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287BE4FC-5B0A-3441-8DE9-96B2E1183CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="2" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50100" windowHeight="27120" activeTab="1" xr2:uid="{B659DFCB-47B4-174A-BB0E-FD9B70C11522}"/>
   </bookViews>
   <sheets>
     <sheet name="Class exercise" sheetId="1" r:id="rId1"/>
     <sheet name="Group exercise" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Andy</t>
   </si>
@@ -160,233 +159,29 @@
     <t>10. What concerns do you have about these comparisons with respect to the efficacy of MDMA?</t>
   </si>
   <si>
-    <t>SDO = ATE + E[Y0|D=1] - E[Y0|D=0] + (1-pi)(ATT-ATU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In both instances, the comparison between the two groups -- where the two groups basically chose the treatment that was best for them. </t>
-  </si>
-  <si>
-    <t>Define the treatment as mindfulness</t>
-  </si>
-  <si>
-    <t>Define the control as MDMA</t>
-  </si>
-  <si>
-    <t>TE = Y1-Y0</t>
-  </si>
-  <si>
-    <t>Higher values of Y1 or Y0 mean that that health outcome is better.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagine a "perfect clinical doctor". </t>
-  </si>
-  <si>
-    <t>Knowing each person's TE, the perfect doctor will then choose the treatment that is best</t>
-  </si>
-  <si>
-    <t>Y = DY1 + (1-D)Y0 based on treatment assignment, and the treatment assignment here</t>
-  </si>
-  <si>
-    <t>will be based on whether the TE is positive (D=1) or non-positive (D=0)&gt;</t>
-  </si>
-  <si>
     <t>ATT (mindfulness)</t>
   </si>
   <si>
     <t>ATU (MDMA)</t>
   </si>
   <si>
-    <t xml:space="preserve">All of the treatment effects and their variants are based on Y(1), Y(0), not Y. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We calculate ATT or ATU depending on whether a unit is treated or not treated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causal parameters are always extensions of column D not column E. </t>
-  </si>
-  <si>
     <t>SDO = Avg Y for treated - Avg Y for comparison</t>
   </si>
   <si>
-    <t>On average, the mindfulness group has a health score that is 1.93 points lower than the MDMA group.</t>
-  </si>
-  <si>
-    <t>WHY doesn't the SDO equal any of those aggregate causal parameters? Why then do we sometimes</t>
-  </si>
-  <si>
-    <t>use SDO like estimators when evaluating an RCT?</t>
-  </si>
-  <si>
     <t>Selection bias terms</t>
   </si>
   <si>
-    <t>For our mindfulness group, had they been on MDMA their health would have been 10.5</t>
-  </si>
-  <si>
-    <t>For our MDMA group (D=0), average health on MDMA was 13.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ATE is negative, and the SDO was negative. So it's biased, but at least the sign is right. </t>
-  </si>
-  <si>
-    <t>Hint to figure out column F: remember that this is the perfect doctor.  She assigns the treatment that is best</t>
-  </si>
-  <si>
-    <t>for you.</t>
-  </si>
-  <si>
-    <t>"Class exercise": ATE = -5, SDO = -1.93</t>
-  </si>
-  <si>
-    <t>Y = DY1 + (1-D)Y0</t>
-  </si>
-  <si>
-    <t>"Group exercise": ATE=+2</t>
-  </si>
-  <si>
-    <t>ATE &lt;0</t>
-  </si>
-  <si>
-    <t>ATE&gt;0</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Question: is it always getting the sign rigth? No.</t>
-  </si>
-  <si>
-    <t>New situation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDO = </t>
-  </si>
-  <si>
-    <t>SDO decompisition</t>
-  </si>
-  <si>
-    <t>"SDO = =B15+B22+(1-B23)*(B16-B17)"</t>
-  </si>
-  <si>
-    <t>SDO = average Y for treated - average y for control</t>
-  </si>
-  <si>
-    <t>"Signs" I mean whether the ATE is positive or negative. So when SDO&gt;0, ATE&gt;0 I say "got the sign right."</t>
-  </si>
-  <si>
-    <t>Simple models (OLS is one too) do not have "no sign flip properties" unless certain assumptions hold.</t>
-  </si>
-  <si>
     <t>Random D</t>
   </si>
   <si>
     <t>Perfect doctor D</t>
-  </si>
-  <si>
-    <t>Perfect doctor (selection on gains) uses the treatment effect to make the treatment assignment. So treatment is not independent of Y1, Y0</t>
-  </si>
-  <si>
-    <t>Randomization (no selection on gains) does not use treatment effect, Y1 or Y0 to make treatment assignemtn. So treatment is independent of Y1,Y0.</t>
-  </si>
-  <si>
-    <t>This is a big deal.  It took us all of human history up to 1923 Jerzey Neyman and 1925 Ronald Fisher to realize that under randomization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you could identify a causal effect with data even without the potential outcomes. </t>
-  </si>
-  <si>
-    <t>Perfect doctor -- "selection on gains from treatment". She picked the treatment depending on whether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the treatment effect was positive of negative/zero. </t>
-  </si>
-  <si>
-    <t>Left us with selection bias: E[Y0|D=1] \neq E[Y0|D=0]</t>
-  </si>
-  <si>
-    <t>What if we randomized the treatment? Well, in expectation, if you randomize the treatment (coin flip),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">then there Y0 for the treatment and Y0 for the control are the same in expectation (population means). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">But in the sample, they won't hold because of finite sample bias. </t>
-  </si>
-  <si>
-    <t>E[Y0|D=1]</t>
-  </si>
-  <si>
-    <t>E[Y0|D=0]</t>
-  </si>
-  <si>
-    <t>Randomized D (not perfect doctor assignment but for column G)</t>
-  </si>
-  <si>
-    <t>Coin flip D</t>
-  </si>
-  <si>
-    <t>n=11</t>
-  </si>
-  <si>
-    <t>n=1000</t>
-  </si>
-  <si>
-    <t>n=10,000</t>
-  </si>
-  <si>
-    <t>n=1 million</t>
-  </si>
-  <si>
-    <t>LATE</t>
-  </si>
-  <si>
-    <t>ATE for the compliers (those who entered treatment bc of instrument assignment)</t>
-  </si>
-  <si>
-    <t>Aggregate causal parameter estimates</t>
-  </si>
-  <si>
-    <t>Aggregate causal parameters</t>
-  </si>
-  <si>
-    <t>Average causal effect for everybody (column D)</t>
-  </si>
-  <si>
-    <t>Average causal effect for the treatment group (Edith, Frank, Ina and Mindy)</t>
-  </si>
-  <si>
-    <t>IV identifeis the LATE</t>
-  </si>
-  <si>
-    <t>RCTs identify the ATE</t>
-  </si>
-  <si>
-    <t>DiD identifies the ATT</t>
-  </si>
-  <si>
-    <t>ATT = E[Y1|D=1] - E[Y0|D=1]</t>
-  </si>
-  <si>
-    <t>We observe Y1 for the D=1 group</t>
-  </si>
-  <si>
-    <t>We do not observe Y0 for the D=1 group</t>
-  </si>
-  <si>
-    <t>Coin flips, bingo ball machines, alphabetizing, the wind -- these are all examples of independence. Bc in each of them, the treatment is assigned for reasons that are not related to treatment effects (Y0 or Y1).</t>
-  </si>
-  <si>
-    <t>selection bias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,19 +193,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -683,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -791,13 +573,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,24 +595,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,27 +613,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C338FD-9127-544C-A0F4-EAB307542E3E}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B22"/>
+    <sheetView topLeftCell="A6" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,36 +963,36 @@
         <v>13</v>
       </c>
       <c r="G1" s="52"/>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="82"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="74">
         <v>1</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="75">
         <v>15</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="75">
         <f>B2-C2</f>
         <v>-14</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="75">
         <f>F2*B2+(1-F2)*C2</f>
         <v>15</v>
       </c>
-      <c r="F2" s="79">
+      <c r="F2" s="75">
         <v>0</v>
       </c>
       <c r="G2" s="52"/>
@@ -1259,24 +1008,24 @@
       <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="74">
         <v>0</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="75">
         <v>20</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="75">
         <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>-20</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="75">
         <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
         <v>20</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="75">
         <v>0</v>
       </c>
       <c r="G3" s="52"/>
@@ -1292,24 +1041,24 @@
       <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="74">
         <v>3</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="75">
         <v>16</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="75">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="75">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="75">
         <v>0</v>
       </c>
       <c r="G4" s="52"/>
@@ -1325,24 +1074,24 @@
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="74">
         <v>5</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="75">
         <v>11</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="75">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="75">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="75">
         <v>0</v>
       </c>
       <c r="G5" s="52"/>
@@ -1358,24 +1107,24 @@
       <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="68">
         <v>14</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="69">
         <v>13</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="69">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="69">
         <v>1</v>
       </c>
       <c r="G6" s="52"/>
@@ -1391,24 +1140,24 @@
       <c r="O6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="68">
         <v>15</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="69">
         <v>14</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="69">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="69">
         <v>1</v>
       </c>
       <c r="G7" s="52"/>
@@ -1424,24 +1173,24 @@
       <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="74">
         <v>6</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="75">
         <v>6</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="75">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="75">
         <v>0</v>
       </c>
       <c r="G8" s="52"/>
@@ -1457,24 +1206,24 @@
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="74">
         <v>1</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="75">
         <v>6</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="75">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="75">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="75">
         <v>0</v>
       </c>
       <c r="G9" s="52"/>
@@ -1490,24 +1239,24 @@
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="68">
         <v>8</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="69">
         <v>7</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="69">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="69">
         <v>1</v>
       </c>
       <c r="G10" s="52"/>
@@ -1523,24 +1272,24 @@
       <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="74">
         <v>19</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="75">
         <v>20</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="75">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="75">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="75">
         <v>0</v>
       </c>
       <c r="G11" s="52"/>
@@ -1556,24 +1305,24 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="68">
         <v>9</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="69">
         <v>8</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="69">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="71">
         <v>1</v>
       </c>
       <c r="G12" s="52"/>
@@ -1586,9 +1335,6 @@
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="22" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1602,59 +1348,41 @@
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="22" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="56">
-        <f>AVERAGE(D2:D12)</f>
-        <v>-5</v>
-      </c>
+      <c r="B15" s="56"/>
       <c r="C15" s="55"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="22" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="57">
-        <f>AVERAGE(D6:D7,D10,D12)</f>
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B16" s="57"/>
       <c r="C16" s="55"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
     </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="58">
-        <f>AVERAGE(D2:D5,D8:D9,D11)</f>
-        <v>-8.4285714285714288</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B17" s="58"/>
       <c r="C17" s="55"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="59"/>
       <c r="C18" s="53"/>
@@ -1662,13 +1390,10 @@
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>24</v>
@@ -1678,141 +1403,79 @@
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="56">
-        <f>AVERAGE(C6:C7,C10,C12)</f>
-        <v>10.5</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="71"/>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58">
-        <f>AVERAGE(C2:C5,C8:C9,C11)</f>
-        <v>13.428571428571429</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="58"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="58">
-        <f>B20-B21</f>
-        <v>-2.9285714285714288</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="58"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="61">
-        <f>AVERAGE(F2:F12)</f>
-        <v>0.36363636363636365</v>
-      </c>
+      <c r="B23" s="61"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
-      <c r="H23" s="65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62">
-        <f>AVERAGE(E6:E7,E10,E12) - AVERAGE(E2:E5,E8:E9,E11)</f>
-        <v>-1.9285714285714288</v>
-      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="62">
-        <f>B15+B24+(1-B23)*(B16-B17)</f>
-        <v>-0.92857142857142883</v>
-      </c>
+      <c r="B25" s="62"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1824,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D807E-B9E2-0447-AF93-DEE806C3102F}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,28 +1512,28 @@
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="77" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="82"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1882,22 +1545,11 @@
       <c r="C2" s="17">
         <v>15</v>
       </c>
-      <c r="D2" s="79">
-        <f>B2-C2</f>
-        <v>-1</v>
-      </c>
-      <c r="E2" s="15">
-        <f>F2*B2+(1-F2)*C2</f>
-        <v>15</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="96">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="19"/>
@@ -1918,22 +1570,11 @@
       <c r="C3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="79">
-        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
-        <v>-5</v>
-      </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="96">
-        <f t="shared" ref="G3:G12" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="31" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="31"/>
@@ -1954,22 +1595,11 @@
       <c r="C4" s="17">
         <v>16</v>
       </c>
-      <c r="D4" s="79">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E4" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="25"/>
@@ -1990,22 +1620,11 @@
       <c r="C5" s="17">
         <v>11</v>
       </c>
-      <c r="D5" s="79">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="41"/>
@@ -2026,22 +1645,11 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="79">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="40" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="41" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="41"/>
@@ -2062,22 +1670,11 @@
       <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="79">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="28"/>
@@ -2098,22 +1695,11 @@
       <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="43" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="44"/>
@@ -2134,22 +1720,11 @@
       <c r="C9" s="17">
         <v>6</v>
       </c>
-      <c r="D9" s="79">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="22" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="22"/>
@@ -2170,22 +1745,11 @@
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="79">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="46" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="47" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="47"/>
@@ -2206,22 +1770,11 @@
       <c r="C11" s="17">
         <v>20</v>
       </c>
-      <c r="D11" s="79">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="25"/>
@@ -2242,24 +1795,10 @@
       <c r="C12" s="17">
         <v>6</v>
       </c>
-      <c r="D12" s="79">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="96">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>79</v>
-      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
@@ -2269,9 +1808,6 @@
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="52"/>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2285,83 +1821,41 @@
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="56">
-        <f>AVERAGE(D2:D12)</f>
-        <v>2</v>
-      </c>
+      <c r="B15" s="56"/>
       <c r="C15" s="55"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="57">
-        <f>AVERAGE(D6:D7,D10,D12)</f>
-        <v>9.25</v>
-      </c>
+      <c r="B16" s="57"/>
       <c r="C16" s="55"/>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="58">
-        <f>AVERAGE(D2:D5,D8:D9,D11)</f>
-        <v>-2.1428571428571428</v>
-      </c>
+      <c r="B17" s="58"/>
       <c r="C17" s="55"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="59"/>
       <c r="C18" s="53"/>
@@ -2369,26 +1863,8 @@
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
-      <c r="J18" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="93">
-        <v>-5</v>
-      </c>
-      <c r="L18" s="76">
-        <v>2</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="56">
-        <v>10.5</v>
-      </c>
-      <c r="O18" s="87">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2400,205 +1876,76 @@
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="1" t="str">
-        <f xml:space="preserve"> "=F2*B2+(1-F2)*C2"</f>
-        <v>=F2*B2+(1-F2)*C2</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="82">
-        <v>1</v>
-      </c>
-      <c r="L19" s="87">
-        <v>9.25</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="58">
-        <v>13.428571428571429</v>
-      </c>
-      <c r="O19" s="88">
-        <v>13.43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="56">
-        <f>AVERAGE(C6:C7,C10,C12)</f>
-        <v>2.25</v>
-      </c>
+      <c r="B20" s="56"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
-      <c r="H20" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="83">
-        <v>-8.4285714285714288</v>
-      </c>
-      <c r="L20" s="88">
-        <v>-2.14</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="58">
-        <v>-2.9285714285714288</v>
-      </c>
-      <c r="O20" s="81">
-        <f>B22</f>
-        <v>-11.178571428571429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58">
-        <f>AVERAGE(C2:C5,C8:C9,C11)</f>
-        <v>13.428571428571429</v>
-      </c>
+      <c r="B21" s="58"/>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="1"/>
-      <c r="J21" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="92">
-        <v>-1.93</v>
-      </c>
-      <c r="L21" s="94">
-        <v>-1.93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="58">
-        <f>B20-B21</f>
-        <v>-11.178571428571429</v>
-      </c>
+      <c r="B22" s="58"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="1"/>
-      <c r="J22" t="str">
-        <f>"SDO =B15+B22+(1-B23)*(B16-B17)"</f>
-        <v>SDO =B15+B22+(1-B23)*(B16-B17)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="61">
-        <f>AVERAGE(F2:F12)</f>
-        <v>0.36363636363636365</v>
-      </c>
+      <c r="B23" s="61"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
-      <c r="I23" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62">
-        <f>AVERAGE(E6:E7,E10,E12) - AVERAGE(E2:E5,E8:E9,E11)</f>
-        <v>-1.9285714285714288</v>
-      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="63">
-        <f>B15+B22+(1-B23)*(B16-B17)</f>
-        <v>-1.9285714285714288</v>
-      </c>
+      <c r="B25" s="63"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
-      <c r="J25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" t="str">
-        <f>"-5 + -2.93 + (.64) x (1 - -8.94) = -1.93"</f>
-        <v>-5 + -2.93 + (.64) x (1 - -8.94) = -1.93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2606,505 +1953,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A95D6-3536-FC47-BAC6-42942EFC417D}">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="46.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="85"/>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>14</v>
-      </c>
-      <c r="C2" s="17">
-        <v>15</v>
-      </c>
-      <c r="D2" s="79">
-        <f>B2-C2</f>
-        <v>-1</v>
-      </c>
-      <c r="E2" s="15">
-        <f>F2*B2+(1-F2)*C2</f>
-        <v>15</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="104">
-        <v>0</v>
-      </c>
-      <c r="H2" s="91"/>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
-        <v>15</v>
-      </c>
-      <c r="C3" s="17">
-        <v>20</v>
-      </c>
-      <c r="D3" s="79">
-        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
-        <v>-5</v>
-      </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E12" si="1">F3*B3+(1-F3)*C3</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="104">
-        <v>1</v>
-      </c>
-      <c r="H3" s="106"/>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16">
-        <v>15</v>
-      </c>
-      <c r="C4" s="17">
-        <v>16</v>
-      </c>
-      <c r="D4" s="79">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E4" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="104">
-        <v>0</v>
-      </c>
-      <c r="H4" s="107"/>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17">
-        <v>11</v>
-      </c>
-      <c r="D5" s="79">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="104">
-        <v>0</v>
-      </c>
-      <c r="H5" s="108"/>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16">
-        <v>14</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="79">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="104">
-        <v>1</v>
-      </c>
-      <c r="H6" s="106"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="79">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="104">
-        <v>0</v>
-      </c>
-      <c r="H7" s="106"/>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17">
-        <v>6</v>
-      </c>
-      <c r="D8" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="104">
-        <v>0</v>
-      </c>
-      <c r="H8" s="106"/>
-    </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17">
-        <v>6</v>
-      </c>
-      <c r="D9" s="79">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="104">
-        <v>0</v>
-      </c>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16">
-        <v>8</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="79">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="104">
-        <v>1</v>
-      </c>
-      <c r="H10" s="106"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16">
-        <v>19</v>
-      </c>
-      <c r="C11" s="17">
-        <v>20</v>
-      </c>
-      <c r="D11" s="79">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="104">
-        <v>0</v>
-      </c>
-      <c r="H11" s="106"/>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="100">
-        <v>9</v>
-      </c>
-      <c r="C12" s="101">
-        <v>6</v>
-      </c>
-      <c r="D12" s="102">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="103">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="105">
-        <v>1</v>
-      </c>
-      <c r="H12" s="106"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16">
-        <f>AVERAGE(C3,C6,C10,C12)</f>
-        <v>6.75</v>
-      </c>
-      <c r="C16">
-        <f>AVERAGE(C2,C4:C5,C7:C9,C11)</f>
-        <v>10.857142857142858</v>
-      </c>
-      <c r="D16" s="81">
-        <f>B16-C16</f>
-        <v>-4.1071428571428577</v>
-      </c>
-      <c r="J16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>7.5</v>
-      </c>
-      <c r="D17" s="81">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18">
-        <v>7.25</v>
-      </c>
-      <c r="C18">
-        <v>7.5</v>
-      </c>
-      <c r="D18" s="81">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19">
-        <v>7.45</v>
-      </c>
-      <c r="C19">
-        <v>7.5</v>
-      </c>
-      <c r="D19" s="81">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <f>AVERAGE(D2:D12)</f>
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <f>AVERAGE(D6:D7,D10,D12)</f>
-        <v>9.25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>